--- a/biology/Botanique/Gommose/Gommose.xlsx
+++ b/biology/Botanique/Gommose/Gommose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gommose est une maladie des plantes qui se caractérise par l'écoulement d'une substance gommeuse à la surface de branches ou du tronc de certains arbres. Cet exsudat végétal est une gomme naturelle qui fait partie des défenses de l'arbre (barrière de compartimentation).
-Cette maladie d'origine physiologique ou parasitaire affecte plus particulièrement certains arbres à feuilles caduques, notamment les arbres fruitiers à noyau du genre Prunus (cerisiers, pruniers, abricotiers et pêchers) et quelques autres, comme les agrumes. La gommose des arbres fruitiers produisait les « gommes nostras »[1].
+Cette maladie d'origine physiologique ou parasitaire affecte plus particulièrement certains arbres à feuilles caduques, notamment les arbres fruitiers à noyau du genre Prunus (cerisiers, pruniers, abricotiers et pêchers) et quelques autres, comme les agrumes. La gommose des arbres fruitiers produisait les « gommes nostras ».
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le symptôme de production de gomme (ou « gommose ») est en réalité un moyen de défense de l'arbre contre une agression extérieure d'origine physique (blessures, branche cassée par le vent, gel) ou contre une agression biotique (insectes, microorganismes).
 </t>
@@ -543,9 +557,11 @@
           <t>Types de gommose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le terme « gommose » désigne également un certain nombre de maladies cryptogamiques ou bactériennes, dont[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le terme « gommose » désigne également un certain nombre de maladies cryptogamiques ou bactériennes, dont :
 gommose de la canne à sucre, Xanthomonas axonopodis pv. vasculorum ,
 gommose de la myrtille, Botryosphaeria dothidea,
 gommose des agrumes, Phytophthora palmivora,
@@ -580,9 +596,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’arbre semble perdre de la sève à travers l’écorce au niveau du tronc et des branches principales, créant des boursouflures sous l'écorce de l'arbre et des plaques transparentes jaune clair d'épaisseur variable sur l'écorce. Il ne s'agit pas en fait de sève mais de gomme naturelle présentant un aspect visqueux et se durcissant peu à peu à l'air. Cette gomme naturelle est un mucus polysaccharidique issu de la dégradation des réserves amylacées de la plante[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’arbre semble perdre de la sève à travers l’écorce au niveau du tronc et des branches principales, créant des boursouflures sous l'écorce de l'arbre et des plaques transparentes jaune clair d'épaisseur variable sur l'écorce. Il ne s'agit pas en fait de sève mais de gomme naturelle présentant un aspect visqueux et se durcissant peu à peu à l'air. Cette gomme naturelle est un mucus polysaccharidique issu de la dégradation des réserves amylacées de la plante.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La gommose peut être due à de nombreux facteurs :
 pédologique : sol lourd et imperméable ou sol pas assez ou trop riche en engrais azoté
@@ -649,7 +669,9 @@
           <t>Traitements de l'arbre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'y a pas de traitement connu mais il est possible d'affaiblir le champignon. Lorsque ce champignon a pénétré dans les tissus vivants de l’arbre, l'arbre est structurellement en voie d'affaiblissement, et est souvent condamné à moyen ou à long terme.
 Précautions préventives
